--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Desktop\PhD\EPS\InputData_new\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25812" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RBFF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,12 +51,6 @@
     <t>for the buildings fuel shifting policy.  It is used</t>
   </si>
   <si>
-    <t>For the U.S. model, it is configured to shift all fuels to</t>
-  </si>
-  <si>
-    <t>electricity.</t>
-  </si>
-  <si>
     <t>To type (below)  / From type (right)</t>
   </si>
   <si>
@@ -91,12 +85,18 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
+  </si>
+  <si>
+    <t>For the EU model, we assume that fossil boilers are replaced by heat pumps and district heating</t>
+  </si>
+  <si>
+    <t>in equal shares. Further we assume that biomass boilers are replaced with biomass.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +152,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,16 +432,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,44 +451,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -502,368 +504,370 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Desktop\PhD\EPS\InputData_new\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3257-D795-4A92-804F-0180AA3862CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25812" windowHeight="11292"/>
+    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RBFF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,6 +52,12 @@
     <t>for the buildings fuel shifting policy.  It is used</t>
   </si>
   <si>
+    <t>For the U.S. model, it is configured to shift all fuels to</t>
+  </si>
+  <si>
+    <t>electricity.</t>
+  </si>
+  <si>
     <t>To type (below)  / From type (right)</t>
   </si>
   <si>
@@ -85,18 +92,12 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
-  </si>
-  <si>
-    <t>For the EU model, we assume that fossil boilers are replaced by heat pumps and district heating</t>
-  </si>
-  <si>
-    <t>in equal shares. Further we assume that biomass boilers are replaced with biomass.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,21 +430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,44 +452,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -498,307 +499,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
@@ -830,9 +831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -865,9 +866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3257-D795-4A92-804F-0180AA3862CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E69E6-F8C6-4525-8CDF-D9D782540C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -437,14 +436,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,42 +451,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -505,403 +504,667 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="6" width="17.33203125" style="4" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ecf9d80fe0681d8e397c19ef62846c2e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="928f64266605fa42fea75ae7d7349071" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78170870-62F7-48E9-9046-523F9E01B7E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7497640-4A39-48A0-832E-E2D3D69AB586}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1375CDEF-4E7D-4C4D-9546-3CF9ECEB5ADB}"/>
 </file>
--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -926,8 +926,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ecf9d80fe0681d8e397c19ef62846c2e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="928f64266605fa42fea75ae7d7349071" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
     <xsd:element name="properties">
@@ -948,6 +948,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1005,6 +1006,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1166,5 +1172,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1375CDEF-4E7D-4C4D-9546-3CF9ECEB5ADB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCFABD8-5BC5-4EB6-9A8D-5E24CD8D1F00}"/>
 </file>
--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3257-D795-4A92-804F-0180AA3862CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E69E6-F8C6-4525-8CDF-D9D782540C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -437,14 +436,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,42 +451,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -505,403 +504,673 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="6" width="17.33203125" style="4" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78170870-62F7-48E9-9046-523F9E01B7E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7497640-4A39-48A0-832E-E2D3D69AB586}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCFABD8-5BC5-4EB6-9A8D-5E24CD8D1F00}"/>
 </file>